--- a/medicine/Handicap/L'Air_d'aller/L'Air_d'aller.xlsx
+++ b/medicine/Handicap/L'Air_d'aller/L'Air_d'aller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Air_d%27aller</t>
+          <t>L'Air_d'aller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Air d'aller est une série télévisée québécoise scénarisée par Jean-Christophe Réhel, produite par URBANIA, réalisée par Sarah Pellerin et diffusée depuis le 23 mars 2023 à Télé-Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Air_d%27aller</t>
+          <t>L'Air_d'aller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quatre amis atteints de la fibrose kystique vont ressentir une impulsion de vivre quand ils apprennent qu’un membre de leur quatuor pourrait mourir avant la fin de la saison estivale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre amis atteints de la fibrose kystique vont ressentir une impulsion de vivre quand ils apprennent qu’un membre de leur quatuor pourrait mourir avant la fin de la saison estivale.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Air_d%27aller</t>
+          <t>L'Air_d'aller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Catherine St-Laurent : Katrine Duplessis
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catherine St-Laurent : Katrine Duplessis
 Antoine Olivier Pilon : Gabriel Perron
 Joakim Robillard : Jimmy Larouche
-Noémie Leduc-Vaudry : Cindy Dufresnes
-Acteurs secondaires
-Marc Béland
+Noémie Leduc-Vaudry : Cindy Dufresnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Air_d'aller</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Air_d%27aller</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marc Béland
 Yves Bélanger
 Denis Bernard
 Ryan Bommarito
@@ -568,74 +621,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%27Air_d%27aller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Air_d'aller</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27Air_d%27aller</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Titre original : L'Air d'aller
 Titre anglais : Thin Air
-Réalisation : Sarah Pellerin[2]
-Scénario : Jean-Christophe Réhel[2],[3]
-Société de production : URBANIA[2]
+Réalisation : Sarah Pellerin
+Scénario : Jean-Christophe Réhel,
+Société de production : URBANIA
 Diffusion : Télé-Québec
 Pays de production : Canada
 Langue originale : français
 Genre : comédie dramatique
 Durée : 10 épisodes
-Dates de sortie : 23 mars 2023[4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Air_d%27aller</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Air_d%27aller</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de la première œuvre de fiction produite par URBANIA[5]. Les tournages ont commencé le 31 mai 2022[1],[6]. La série comportera dix épisodes[1] et sera diffusée sur Télé-Québec en mars 2023[7].
-</t>
+Dates de sortie : 23 mars 2023</t>
         </is>
       </c>
     </row>
@@ -645,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Air_d%27aller</t>
+          <t>L'Air_d'aller</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,14 +684,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Thèmes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Christophe Réhel, le scénariste de la série, est lui-même atteint de la fibrose kystique[1],[8]. Il a déjà abordé cette maladie dans son roman Ce qu'on respire sur Tatouine[1], adapté au cinéma et au théâtre[9],[10].
-Je n’avais pas fait le tour de cette maladie, il me reste des choses à dire là-dessus affirme Jean-Christophe Réhel dans une interview pour Radio-Canada[1].
-Si la série sera plus comique et légère que son roman, des "scènes très rock and roll" seront présentes[1].
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la première œuvre de fiction produite par URBANIA. Les tournages ont commencé le 31 mai 2022,. La série comportera dix épisodes et sera diffusée sur Télé-Québec en mars 2023.
 </t>
         </is>
       </c>
@@ -678,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%27Air_d%27aller</t>
+          <t>L'Air_d'aller</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,14 +717,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2023)
-Deuxième saison (2024)
-La deuxième saison sera diffusée à partir du 2 avril 2024.
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Christophe Réhel, le scénariste de la série, est lui-même atteint de la fibrose kystique,. Il a déjà abordé cette maladie dans son roman Ce qu'on respire sur Tatouine, adapté au cinéma et au théâtre,.
+Je n’avais pas fait le tour de cette maladie, il me reste des choses à dire là-dessus affirme Jean-Christophe Réhel dans une interview pour Radio-Canada.
+Si la série sera plus comique et légère que son roman, des "scènes très rock and roll" seront présentes.
 </t>
         </is>
       </c>
@@ -711,7 +737,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L%27Air_d%27aller</t>
+          <t>L'Air_d'aller</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -726,10 +752,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2024)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La deuxième saison sera diffusée à partir du 2 avril 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'Air_d'aller</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Air_d%27aller</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
